--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="1080" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5160" yWindow="160" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Database Structure" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>Accounts</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Transaction</t>
+  </si>
+  <si>
+    <t>V1</t>
   </si>
 </sst>
 </file>
@@ -221,8 +224,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -281,7 +288,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -309,6 +316,8 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -336,6 +345,8 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -939,7 +950,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -950,10 +960,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C32"/>
+  <dimension ref="B2:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -961,86 +971,110 @@
     <col min="2" max="2" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:4">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:4">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="2:3">
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="2:3">
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:4">
       <c r="B15">
         <v>9</v>
       </c>
@@ -1048,7 +1082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:4">
       <c r="B16">
         <v>10</v>
       </c>
@@ -1056,7 +1090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:4">
       <c r="B17">
         <v>11</v>
       </c>
@@ -1064,7 +1098,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:4">
       <c r="B18">
         <v>12</v>
       </c>
@@ -1072,7 +1106,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:4">
       <c r="B19">
         <v>13</v>
       </c>
@@ -1080,7 +1114,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:4">
       <c r="B20">
         <v>14</v>
       </c>
@@ -1088,41 +1122,50 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:4">
       <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:4">
       <c r="B23">
         <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24">
         <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
       <c r="B25">
         <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
       <c r="B27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:4">
       <c r="B28">
         <v>18</v>
       </c>
@@ -1130,7 +1173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:4">
       <c r="B29">
         <v>19</v>
       </c>
@@ -1138,7 +1181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:4">
       <c r="B30">
         <v>20</v>
       </c>
@@ -1146,7 +1189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:4">
       <c r="B31">
         <v>21</v>
       </c>
@@ -1154,7 +1197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:4">
       <c r="B32">
         <v>22</v>
       </c>

--- a/Design.xlsx
+++ b/Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="160" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5160" yWindow="180" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Database Structure" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>Accounts</t>
   </si>
@@ -224,8 +224,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -288,7 +294,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -318,6 +324,9 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -347,6 +356,9 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -962,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1081,6 +1093,9 @@
       <c r="C15" t="s">
         <v>45</v>
       </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16">
@@ -1089,6 +1104,9 @@
       <c r="C16" t="s">
         <v>46</v>
       </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17">
@@ -1097,6 +1115,9 @@
       <c r="C17" t="s">
         <v>47</v>
       </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18">
@@ -1105,6 +1126,9 @@
       <c r="C18" t="s">
         <v>48</v>
       </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19">
@@ -1113,6 +1137,9 @@
       <c r="C19" t="s">
         <v>49</v>
       </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20">
@@ -1120,6 +1147,9 @@
       </c>
       <c r="C20" t="s">
         <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:4">
